--- a/Pokemon_Server/data/pkm_conquest_episodes.xlsx
+++ b/Pokemon_Server/data/pkm_conquest_episodes.xlsx
@@ -25,9 +25,6 @@
     <t>the-free-spirits-path</t>
   </si>
   <si>
-    <t>The Free Spirit's Path</t>
-  </si>
-  <si>
     <t>a-fate-born-of-beauty</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>the-dragons-dream</t>
   </si>
   <si>
-    <t>The Dragon's Dream</t>
-  </si>
-  <si>
     <t>pokemari-and-me</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>the-visionarys-quest</t>
   </si>
   <si>
-    <t>The Visionary's Quest</t>
-  </si>
-  <si>
     <t>the-rose-of-ransei</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>ranseis-legendary-beauty</t>
   </si>
   <si>
-    <t>Ransei's Legendary Beauty</t>
-  </si>
-  <si>
     <t>blowing-in-the-wind</t>
   </si>
   <si>
@@ -251,6 +239,18 @@
   </si>
   <si>
     <t>conquest_episode_id</t>
+  </si>
+  <si>
+    <t>Ransei''s Legendary Beauty</t>
+  </si>
+  <si>
+    <t>The Visionary''s Quest</t>
+  </si>
+  <si>
+    <t>The Dragon''s Dream</t>
+  </si>
+  <si>
+    <t>The Free Spirit''s Path</t>
   </si>
 </sst>
 </file>
@@ -611,13 +611,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,10 +636,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,10 +647,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,10 +658,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,10 +669,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,10 +680,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -735,10 +735,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -746,10 +746,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -757,10 +757,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -768,10 +768,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -790,10 +790,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -801,10 +801,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -812,10 +812,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -823,10 +823,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -834,10 +834,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -845,10 +845,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -856,10 +856,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -867,10 +867,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -878,10 +878,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -889,10 +889,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -900,10 +900,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -911,10 +911,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,10 +933,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -944,10 +944,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -955,10 +955,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -977,10 +977,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -988,10 +988,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -999,10 +999,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -1010,10 +1010,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -1021,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
